--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Source\Repos\BurningBox.GranTurismoSport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{285C0665-4AFD-42C6-BD10-BF6C1E0C4052}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA1B454-02F8-4292-B78E-2E86EA056B93}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{E707E975-2A0E-4EA3-970B-EAC2875CFA3A}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,12 +53,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1E678C-8D3B-4D37-AB88-8D03B35E8095}">
-  <dimension ref="B10:E53"/>
+  <dimension ref="B10:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,178 +451,178 @@
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>3</v>
       </c>
     </row>
@@ -609,218 +631,124 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
       <c r="E35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
       <c r="E36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
       <c r="E37">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
       <c r="E38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
       <c r="E39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
       <c r="E40">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
       <c r="E41">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
       <c r="E42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
       <c r="E43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
       <c r="E44">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
       <c r="E45">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
       <c r="E46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
       <c r="E47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
       <c r="E48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57">
         <v>3</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Source\Repos\BurningBox.GranTurismoSport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA1B454-02F8-4292-B78E-2E86EA056B93}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082EA527-6277-4F52-9747-70EB378A4F01}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{E707E975-2A0E-4EA3-970B-EAC2875CFA3A}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="B10:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="C34" sqref="C34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
